--- a/biology/Botanique/Carex_capillaris/Carex_capillaris.xlsx
+++ b/biology/Botanique/Carex_capillaris/Carex_capillaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex capillaire, laîche capillaire
-Le Carex capillaire[1] ou laîche capillaire[2] (Carex capillaris) est une espèce de plantes du genre Carex et de la famille des Cyperaceae.
+Le Carex capillaire ou laîche capillaire (Carex capillaris) est une espèce de plantes du genre Carex et de la famille des Cyperaceae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Carex capillaris Linnaeus subsp. capillaris - Carex capillaire[1]
-Carex capillaris subsp. fuscidula (V.I. Kreczetovicz ex T.V. Egorova) Á. Löve &amp; D. Löve - carex à épis sombres[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Carex capillaris Linnaeus subsp. capillaris - Carex capillaire
+Carex capillaris subsp. fuscidula (V.I. Kreczetovicz ex T.V. Egorova) Á. Löve &amp; D. Löve - carex à épis sombres</t>
         </is>
       </c>
     </row>
